--- a/biology/Histoire de la zoologie et de la botanique/Alfred_James_Ewart/Alfred_James_Ewart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfred_James_Ewart/Alfred_James_Ewart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred James Ewart est un botaniste britannique, né le 12 février 1872 à Liverpool et mort le 12 septembre 1937 à Melbourne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils d’Emund Brown Ewart et de Martha née Williams. Il fait ses études à Liverpool et obtient son Bachelor of Sciences à Londres en 1893 puis son doctorat à l’université de Leipzig en 1896.
 Il rejoint l’université de Birmingham en 1897 où il enseigne la botanique et la physiologie végétale. Ewart se marie en 1898 avec Florence Maud Donaldson. De 1905 à 1921, il est botaniste auprès du gouvernement de Melbourne. Il se remarie en 1931 avec Elizabeth Bilton.
